--- a/P05/Scrum_MICE.xlsx
+++ b/P05/Scrum_MICE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishabh/Desktop/cse1325/P05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE6B53C-A4F2-8048-85A1-914E8DA54183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29ABD2E-668B-AB44-81C8-7742E814B955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22740" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="186">
   <si>
     <t>Product Name:</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>In Test</t>
+  </si>
+  <si>
+    <t>Create Scoop class and add constructor, addMixIn and override toString methods</t>
   </si>
 </sst>
 </file>
@@ -1347,28 +1350,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5702,7 +5705,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -5804,7 +5807,7 @@
       </c>
       <c r="B7" s="18">
         <f>COUNTA(D17:D995)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -5819,7 +5822,7 @@
       </c>
       <c r="B8" s="18">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5837,7 +5840,7 @@
       </c>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5855,7 +5858,7 @@
       </c>
       <c r="B10" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5873,7 +5876,7 @@
       </c>
       <c r="B11" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5891,7 +5894,7 @@
       </c>
       <c r="B12" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5909,7 +5912,7 @@
       </c>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5927,7 +5930,7 @@
       </c>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -6024,7 +6027,9 @@
       <c r="C20" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="27" t="s">
+        <v>185</v>
+      </c>
       <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5">
@@ -6032,7 +6037,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5">

--- a/P05/Scrum_MICE.xlsx
+++ b/P05/Scrum_MICE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishabh/Desktop/cse1325/P05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29ABD2E-668B-AB44-81C8-7742E814B955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A884D6-E4AE-394D-98E3-EF1E27FEFF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22740" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22740" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="189">
   <si>
     <t>Product Name:</t>
   </si>
@@ -596,10 +596,19 @@
     <t>Create MixIn and add constructor and toString method</t>
   </si>
   <si>
-    <t>In Test</t>
-  </si>
-  <si>
     <t>Create Scoop class and add constructor, addMixIn and override toString methods</t>
+  </si>
+  <si>
+    <t>Add TestScoop to test Scoop</t>
+  </si>
+  <si>
+    <t>Fix conditions to check if mixins ArrayList is not initialized</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>Completed Day 6</t>
   </si>
 </sst>
 </file>
@@ -1051,22 +1060,22 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,28 +1359,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3721,8 +3730,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -3932,11 +3941,11 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ref="B13:B18" si="0">B12-C13</f>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="4"/>
@@ -3956,7 +3965,7 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 2")</f>
@@ -3980,7 +3989,7 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 3")</f>
@@ -4004,7 +4013,7 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 4")</f>
@@ -4024,7 +4033,7 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 5")</f>
@@ -4044,7 +4053,7 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 6")</f>
@@ -4165,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>31</v>
@@ -4198,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>31</v>
@@ -4231,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>31</v>
@@ -4263,7 +4272,9 @@
       <c r="F27" s="14">
         <v>1</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="H27" s="12" t="s">
         <v>31</v>
       </c>
@@ -5704,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -5807,7 +5818,7 @@
       </c>
       <c r="B7" s="18">
         <f>COUNTA(D17:D995)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -5822,7 +5833,7 @@
       </c>
       <c r="B8" s="18">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5840,7 +5851,7 @@
       </c>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5858,7 +5869,7 @@
       </c>
       <c r="B10" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5876,7 +5887,7 @@
       </c>
       <c r="B11" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5894,7 +5905,7 @@
       </c>
       <c r="B12" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5912,11 +5923,11 @@
       </c>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -5930,7 +5941,7 @@
       </c>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -5985,7 +5996,9 @@
       <c r="D17" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="28" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
@@ -6000,7 +6013,9 @@
       <c r="D18" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
@@ -6015,7 +6030,9 @@
       <c r="D19" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
@@ -6028,25 +6045,45 @@
         <v>180</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="28"/>
+        <v>184</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
+      <c r="B21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="28"/>
+      <c r="B22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">

--- a/P05/Scrum_MICE.xlsx
+++ b/P05/Scrum_MICE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishabh/Desktop/cse1325/P05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A884D6-E4AE-394D-98E3-EF1E27FEFF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F3CD80-6D42-B249-BB7A-AE1DD436095B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22740" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="520" windowWidth="22740" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -3730,8 +3730,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="98" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -5715,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
